--- a/static/data/arquivo-nao-contribuinte/Não Contribuintes.xlsx
+++ b/static/data/arquivo-nao-contribuinte/Não Contribuintes.xlsx
@@ -548,28 +548,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>88113</v>
+        <v>88206</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100094424</t>
+          <t>100094507</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>BR0015442</t>
+          <t>BR0026113</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SAO LUIZ ADM SHOPPING S/C LTDA</t>
+          <t>MANGUINHOS ADM DE BENS E CONSULTORI</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -579,33 +579,33 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Venda com pedido</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>41240776881093000172550020000881131000944245</t>
+          <t>41240776881093000172550020000882061000945072</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BR0101</t>
+          <t>BR0105</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>01637668000107</t>
+          <t>48699418000165</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>11300</t>
+          <t>04557</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -615,17 +615,17 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1138.01</t>
+          <t>280.26</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>70.07</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1138.01</t>
+          <t>350.33</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -647,28 +647,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>88114</v>
+        <v>88208</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>100094426</t>
+          <t>100094535</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>BR1901219</t>
+          <t>BR0010977</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>IRMAOS KUNST CONSTRUCOES LTDA</t>
+          <t>AMB EMPREENDIMENTOS IMOBIL. LTDA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>41240776881093000172550020000881141000944269</t>
+          <t>41240776881093000172550020000882081000945352</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -694,17 +694,17 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>97764302000178</t>
+          <t>26354329000144</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>10108</t>
+          <t>02404</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>38.25</t>
+          <t>2125.02</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>38.25</t>
+          <t>2125.02</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -746,28 +746,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>88115</v>
+        <v>88211</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>100094427</t>
+          <t>100094538</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BR0026573</t>
+          <t>BR0025869</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>I2R STUDIO DE BIKE FORTALEZA LTDA</t>
+          <t>CONDOMINIO SOBERANE RESIDENCE, CORP</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>41240776881093000172550020000881151000944274</t>
+          <t>41240776881093000172550020000882111000945382</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -793,17 +793,17 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>52262993000173</t>
+          <t>32581733000153</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>04400</t>
+          <t>02603</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>47.29</t>
+          <t>793.61</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>47.29</t>
+          <t>793.61</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -845,28 +845,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>88116</v>
+        <v>88212</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>100094428</t>
+          <t>100094541</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BR0025553</t>
+          <t>BR0015419</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>UNIMED VITORIA COOPERATIVA DE TRABA</t>
+          <t>SPE SAUDE PRIMARIA BH S/A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -876,33 +876,33 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>Venda com pedido</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>41240776881093000172550020000881161000944280</t>
+          <t>41240776881093000172550020000882121000945410</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BR0104</t>
+          <t>BR0101</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>27578434000120</t>
+          <t>23921007000141</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>05309</t>
+          <t>06200</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>4397.29</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>4397.29</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">

--- a/static/data/arquivo-nao-contribuinte/Não Contribuintes.xlsx
+++ b/static/data/arquivo-nao-contribuinte/Não Contribuintes.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Número do documento_x</t>
+          <t>NFE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Parceiro de negócios faturado</t>
+          <t>PN</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 12</t>
+          <t>Razão Social</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Departamento_x</t>
+          <t>Departamento</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Estado/Município</t>
+          <t>UF</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Valor Fundo Combate Pobreza</t>
+          <t>Valor FCP</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -537,6 +537,11 @@
       <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Ano Referencia</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Data de vencimento</t>
         </is>
       </c>
     </row>
@@ -548,28 +553,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>88206</v>
+        <v>101222</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100094507</t>
+          <t>100110612</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>BR0026113</t>
+          <t>BR0028719</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>MANGUINHOS ADM DE BENS E CONSULTORI</t>
+          <t>DIAGNOSTICOS DA AMERICA S.A .</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -579,28 +584,28 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>Venda com pedido</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>41240776881093000172550020000882061000945072</t>
+          <t>41250776881093000172550020001012221001106128</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BR0105</t>
+          <t>BR0101</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>48699418000165</t>
+          <t>61486650049867</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>04557</t>
+          <t>01702</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -615,17 +620,17 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>280.26</t>
+          <t>8449.06</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>70.07</t>
+          <t>2112.26</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>350.33</t>
+          <t>10561.32</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -635,7 +640,12 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -647,28 +657,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>88208</v>
+        <v>101223</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>100094535</t>
+          <t>100110613</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>BR0010977</t>
+          <t>BR0028994</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>AMB EMPREENDIMENTOS IMOBIL. LTDA</t>
+          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -683,7 +693,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>41240776881093000172550020000882081000945352</t>
+          <t>41250776881093000172550020001012231001106133</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -694,17 +704,17 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>26354329000144</t>
+          <t>06845408004561</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>02404</t>
+          <t>11001</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -714,7 +724,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2125.02</t>
+          <t>7888.67</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -724,7 +734,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2125.02</t>
+          <t>7888.67</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -734,7 +744,12 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -746,28 +761,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>88211</v>
+        <v>101225</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>100094538</t>
+          <t>100110615</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BR0025869</t>
+          <t>BR0025613</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CONDOMINIO SOBERANE RESIDENCE, CORP</t>
+          <t>RIBAMAR PESTANA DOS REIS</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -782,7 +797,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>41240776881093000172550020000882111000945382</t>
+          <t>41250776881093000172550020001012251001106154</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -793,37 +808,37 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>32581733000153</t>
+          <t>90271610700</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>02603</t>
+          <t>04557</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>PJ</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>793.61</t>
+          <t>103.25</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>25.81</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>793.61</t>
+          <t>129.06</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -833,7 +848,12 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -845,28 +865,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>88212</v>
+        <v>101226</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>100094541</t>
+          <t>100110616</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BR0015419</t>
+          <t>BR1514380</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SPE SAUDE PRIMARIA BH S/A</t>
+          <t>BIOCOR HOSP.DE DOENCAS CARDIOVASC.L</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -881,7 +901,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>41240776881093000172550020000882121000945410</t>
+          <t>41250776881093000172550020001012261001106160</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -892,12 +912,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>23921007000141</t>
+          <t>20294088000109</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>06200</t>
+          <t>44805</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -912,7 +932,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>4397.29</t>
+          <t>265.34</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -922,7 +942,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4397.29</t>
+          <t>265.34</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -932,7 +952,12 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>

--- a/static/data/arquivo-nao-contribuinte/Não Contribuintes.xlsx
+++ b/static/data/arquivo-nao-contribuinte/Não Contribuintes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,28 +553,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>101222</v>
+        <v>101269</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100110612</t>
+          <t>100110667</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>BR0028719</t>
+          <t>BR0029080</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>DIAGNOSTICOS DA AMERICA S.A .</t>
+          <t>LAGE BON'A EMPREENDIMENTOS IMOBILIA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>41250776881093000172550020001012221001106128</t>
+          <t>41250776881093000172550020001012691001106671</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -600,17 +600,17 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>61486650049867</t>
+          <t>47992964000127</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>01702</t>
+          <t>06200</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -620,17 +620,17 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>8449.06</t>
+          <t>463.80</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2112.26</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>10561.32</t>
+          <t>463.80</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
     </row>
@@ -657,28 +657,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>101223</v>
+        <v>101271</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>100110613</t>
+          <t>100110671</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>BR0028994</t>
+          <t>BR0029149</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ASSOCIAÇÃO NORTE BRASILEIRA DE EDUC</t>
+          <t>LUCIANO DA SILVA - AR CONDICIONADO</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>41250776881093000172550020001012231001106133</t>
+          <t>41250776881093000172550020001012711001106718</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -704,17 +704,17 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>06845408004561</t>
+          <t>13986873000167</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>11001</t>
+          <t>16602</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>7888.67</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>7888.67</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
     </row>
@@ -761,28 +761,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>101225</v>
+        <v>101273</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>100110615</t>
+          <t>100110673</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BR0025613</t>
+          <t>BR0029174</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>RIBAMAR PESTANA DOS REIS</t>
+          <t>FUNDACAO TORINO</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>41250776881093000172550020001012251001106154</t>
+          <t>41250776881093000172550020001012731001106739</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -808,37 +808,37 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>90271610700</t>
+          <t>19401165000101</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>04557</t>
+          <t>44805</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PJ</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>103.25</t>
+          <t>851.99</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>25.81</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>129.06</t>
+          <t>851.99</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
     </row>
@@ -865,28 +865,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>101226</v>
+        <v>101274</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>100110616</t>
+          <t>100110674</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BR1514380</t>
+          <t>BR0029174</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>BIOCOR HOSP.DE DOENCAS CARDIOVASC.L</t>
+          <t>FUNDACAO TORINO</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>41250776881093000172550020001012261001106160</t>
+          <t>41250776881093000172550020001012741001106744</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -912,7 +912,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>20294088000109</t>
+          <t>19401165000101</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>265.34</t>
+          <t>647.40</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>265.34</t>
+          <t>647.40</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -957,7 +957,319 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>101275</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>100110675</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BR0023623</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>HOSPITAL DE MEDICINA ESPECIALIZADA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Autorizada</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>41250776881093000172550020001012751001106750</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>70524145000177</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>03403</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>PJ</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>33.78</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>33.78</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>101276</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>100110676</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BR0029215</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>PALAIS ROYAL DALLO EMPREENDIMENTOS</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Autorizada</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>41250776881093000172550020001012761001106765</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>41010015000118</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>08302</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>PJ</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>101277</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>100110679</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BR0029144</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>TAXCO SERVICOS CONTABEIS S/S</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Autorizada</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Venda com pedido</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>41250776881093000172550020001012771001106797</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>BR0101</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>18466164000174</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>14902</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>PJ</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>5044.75</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5044.75</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
         </is>
       </c>
     </row>
